--- a/assets/sample_questions.xlsx
+++ b/assets/sample_questions.xlsx
@@ -40,7 +40,7 @@
     <t>What is Dart?</t>
   </si>
   <si>
-    <t>Language,Framework,Library</t>
+    <t>Language,Framework,Library,xyz</t>
   </si>
   <si>
     <t>Language</t>
@@ -74,14 +74,12 @@
     </font>
     <font>
       <b/>
-      <color theme="1"/>
+      <color/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
+      <color/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,13 +96,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -232,21 +231,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="6350" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="12700" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="19050" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -263,7 +262,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" rotWithShape="0" algn="ctr" dir="5400000" dist="19050">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -322,9 +321,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="11" width="12.57"/>
+  </cols>
   <sheetData>
-    <row r="2">
+    <row r="1" ht="15.75" customHeight="1"/>
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -338,7 +341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -352,11 +355,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -366,7 +369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -380,6 +383,101 @@
         <v>15</v>
       </c>
     </row>
+    <row r="6" ht="15.75" customHeight="1"/>
+    <row r="7" ht="15.75" customHeight="1"/>
+    <row r="8" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1"/>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
